--- a/B1-Cristina-Tecnologia d'obtencio de fibres papereres/practicas_laboratorio/Practica_1_cristina.xlsx
+++ b/B1-Cristina-Tecnologia d'obtencio de fibres papereres/practicas_laboratorio/Practica_1_cristina.xlsx
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -87,6 +87,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;Google Sans Mono&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -111,6 +116,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -369,15 +377,15 @@
         <v>58.5477</v>
       </c>
       <c r="C2" s="1">
-        <f>abs(60.986 - B2)</f>
-        <v>2.4383</v>
+        <f>abs(62.337 - B2)</f>
+        <v>3.7893</v>
       </c>
       <c r="D2" s="1">
         <v>91.9408</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ref="E2:E5" si="1">C2 * D2 / 100</f>
-        <v>2.241792526</v>
+        <v>3.483912734</v>
       </c>
       <c r="F2" s="1">
         <v>59.019</v>
@@ -388,8 +396,9 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" ref="H2:H5" si="3"> G2 / E2 * 100</f>
-        <v>21.02335495</v>
-      </c>
+        <v>13.52789338</v>
+      </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -399,15 +408,15 @@
         <v>57.3783</v>
       </c>
       <c r="C3" s="1">
-        <f>abs(62.337 - B3)</f>
-        <v>4.9587</v>
+        <f>abs(60.986 - B3)</f>
+        <v>3.6077</v>
       </c>
       <c r="D3" s="1">
         <v>91.9408</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="1"/>
-        <v>4.55906845</v>
+        <v>3.316948242</v>
       </c>
       <c r="F3" s="1">
         <v>57.853</v>
@@ -418,7 +427,7 @@
       </c>
       <c r="H3" s="2">
         <f t="shared" si="3"/>
-        <v>10.4122148</v>
+        <v>14.31134782</v>
       </c>
     </row>
     <row r="4">
